--- a/Data/TeseCaseDescription.xlsx
+++ b/Data/TeseCaseDescription.xlsx
@@ -22,55 +22,57 @@
     <t>Web_AddressManage_Excel</t>
   </si>
   <si>
+    <t>Web_MyCollect</t>
+  </si>
+  <si>
+    <t>Web_PlaceOrder</t>
+  </si>
+  <si>
+    <t>个人中心-增加收货地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-增加收货地址-来自Excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏商品、取消收藏商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单购买后取消订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeseCaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeseCaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Web_CollectBrand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Web_CollectGoods</t>
-  </si>
-  <si>
-    <t>Web_MyCollect</t>
-  </si>
-  <si>
-    <t>Web_PlaceOrder</t>
-  </si>
-  <si>
-    <t>个人中心-增加收货地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心-增加收货地址-来自Excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏商品、取消收藏商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单购买后取消订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TeseCaseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TeseCaseDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEB_Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web_Login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +465,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -474,10 +476,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -485,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -493,23 +495,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -517,23 +519,23 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TeseCaseDescription.xlsx
+++ b/Data/TeseCaseDescription.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="TeseCaseDescription" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Web_AddressManage</t>
   </si>
@@ -73,6 +73,30 @@
   </si>
   <si>
     <t>Web_Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web_PlaceOrder_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web_PlaceOrder_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web_PlaceOrder_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单购买后取消订单_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单购买后取消订单_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单购买后取消订单_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -538,6 +562,30 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/TeseCaseDescription.xlsx
+++ b/Data/TeseCaseDescription.xlsx
@@ -25,9 +25,6 @@
     <t>Web_MyCollect</t>
   </si>
   <si>
-    <t>Web_PlaceOrder</t>
-  </si>
-  <si>
     <t>个人中心-增加收货地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下单购买后取消订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TeseCaseName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +90,14 @@
   </si>
   <si>
     <t>下单购买后取消订单_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web_PlaceOrder_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单购买后取消订单_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +490,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -500,10 +501,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -511,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -519,31 +520,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -551,39 +552,39 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TeseCaseDescription.xlsx
+++ b/Data/TeseCaseDescription.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Web_AddressManage</t>
   </si>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收藏商品、取消收藏商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Web_Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Web_PlaceOrder_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +90,38 @@
   </si>
   <si>
     <t>下单购买后取消订单_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web_Login_by_mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录、退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web_Search_By_Brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web_Search_By_Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索品类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web_Search_By_Good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -501,10 +525,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -525,7 +549,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -533,7 +557,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -541,7 +565,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -549,42 +573,66 @@
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TeseCaseDescription.xlsx
+++ b/Data/TeseCaseDescription.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Web_AddressManage</t>
   </si>
@@ -33,18 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收藏品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏商品、取消收藏商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TeseCaseName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,55 +61,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下单购买后取消订单_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单购买后取消订单_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单购买后取消订单_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Web_PlaceOrder_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下单购买后取消订单_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Web_Login_by_mail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录、退出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Web_Search_By_Brand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Web_Search_By_Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索品类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Web_Search_By_Good</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索商品</t>
+    <t>使用Email登录、退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏商品&amp;取消商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏品牌&amp;删除收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏商品&amp;删除收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单&amp;取消订单：默认地址+在线支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单&amp;取消订单：选择地址+在线支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单&amp;取消订单：使用新地址+货到付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单&amp;取消订单：默认地址+货到付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索-关键字：品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索-关键字：品类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索-关键字：商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web_PlaceOrder_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车--移入收藏夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web_AddComment</t>
+  </si>
+  <si>
+    <t>商品详情页面-我要评论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -525,114 +540,130 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TeseCaseDescription.xlsx
+++ b/Data/TeseCaseDescription.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Web_AddressManage</t>
   </si>
@@ -97,34 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下单&amp;取消订单：默认地址+在线支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单&amp;取消订单：选择地址+在线支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单&amp;取消订单：使用新地址+货到付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单&amp;取消订单：默认地址+货到付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索-关键字：品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索-关键字：品类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索-关键字：商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Web_PlaceOrder_5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,6 +109,106 @@
   </si>
   <si>
     <t>商品详情页面-我要评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android_PlaceOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP下单、取消订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索-关键字: 品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索-关键字: 品类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索-关键字: 商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单&amp;取消订单: 默认地址+在线支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单&amp;取消订单: 选择地址+在线支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单&amp;取消订单: 使用新地址+货到付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单&amp;取消订单: 默认地址+货到付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appium_server_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appium_server_port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>udid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KZMBZSCAOFOBAAA6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.6.211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZX1G6225LQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRT85DFASKYDOF7D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红米(company)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AndroidVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为Mate7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V6V7N14C12002572</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android_PlaceOrder_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP下单、取消订单_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -212,15 +284,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,144 +622,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4725</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4723</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="6">
+        <v>4.4000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TeseCaseDescription.xlsx
+++ b/Data/TeseCaseDescription.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>Web_AddressManage</t>
   </si>
@@ -209,6 +209,42 @@
   </si>
   <si>
     <t>APP下单、取消订单_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android_PlaceOrder_CancelOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP个人中心取消订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U5S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5_PlaceOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5下单、取消订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web_Login_by_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用手机号码登录、退出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,6 +354,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -622,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -636,7 +680,7 @@
     <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="5" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="22.875" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="7" max="7" width="17" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -658,7 +702,7 @@
       <c r="F1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -673,243 +717,237 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="7"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="6">
-        <v>4.4000000000000004</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F12" s="6">
+        <v>107</v>
+      </c>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="6">
-        <v>4.2</v>
+        <v>46</v>
+      </c>
+      <c r="G13" s="10">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="6">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4.2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
       <c r="E15" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="6">
-        <v>4.4000000000000004</v>
+        <v>43</v>
+      </c>
+      <c r="G15" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="E16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="10">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="6">
-        <v>4725</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="6">
-        <v>4.4000000000000004</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>38</v>
@@ -918,13 +956,82 @@
         <v>4723</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4725</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="6">
+        <v>4723</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="6">
+        <v>4723</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="6">
-        <v>4.4000000000000004</v>
+      <c r="G21" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TeseCaseDescription.xlsx
+++ b/Data/TeseCaseDescription.xlsx
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.6.211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ZX1G6225LQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,6 +241,10 @@
   </si>
   <si>
     <t>使用手机号码登录、退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.6.166</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +669,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -700,10 +700,10 @@
         <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -721,10 +721,10 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -846,7 +846,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="6">
         <v>107</v>
@@ -863,10 +863,10 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="10">
         <v>4.4000000000000004</v>
@@ -882,10 +882,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="10">
         <v>4.2</v>
@@ -901,10 +901,10 @@
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
       <c r="E15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="10">
         <v>5</v>
@@ -923,7 +923,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="10">
         <v>4.4000000000000004</v>
@@ -950,39 +950,39 @@
         <v>26</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6">
         <v>4723</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6">
         <v>4725</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="10">
         <v>4.4000000000000004</v>
@@ -990,22 +990,22 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D20" s="6">
         <v>4723</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="10">
         <v>4.4000000000000004</v>
@@ -1013,13 +1013,13 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D21" s="6">
         <v>4723</v>
@@ -1028,10 +1028,10 @@
         <v>37</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TeseCaseDescription.xlsx
+++ b/Data/TeseCaseDescription.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Web_AddressManage</t>
   </si>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收藏品牌&amp;删除收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收藏商品&amp;删除收藏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,6 +241,18 @@
   </si>
   <si>
     <t>172.16.6.166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录情况收藏品牌&amp;删除收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录情况收藏品牌&amp;删除收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web_CollectBrand_Without_Login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,15 +674,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="34.375" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
@@ -691,19 +699,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -721,10 +729,10 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -737,7 +745,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -747,10 +755,10 @@
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -760,10 +768,10 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -773,10 +781,10 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -786,10 +794,10 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -799,23 +807,23 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -825,10 +833,10 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -838,84 +846,78 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="6">
-        <v>107</v>
-      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="10">
-        <v>4.4000000000000004</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F13" s="6">
+        <v>107</v>
+      </c>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G14" s="10">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15" s="10">
-        <v>5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
@@ -923,89 +925,85 @@
         <v>37</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" s="10">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="10"/>
+      <c r="E17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="10">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="6">
-        <v>4723</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>49</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4723</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="6">
-        <v>4725</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="10">
-        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="6">
-        <v>4723</v>
+        <v>4725</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="10">
         <v>4.4000000000000004</v>
@@ -1013,25 +1011,48 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="6">
         <v>4723</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="6">
+        <v>4723</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TeseCaseDescription.xlsx
+++ b/Data/TeseCaseDescription.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="TeseCaseDescription" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" calcOnSave="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>Web_AddressManage</t>
   </si>
@@ -253,6 +253,13 @@
   </si>
   <si>
     <t>Web_CollectBrand_Without_Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web_CollectGoods_Without_Login</t>
+  </si>
+  <si>
+    <t>未登录情况收藏商品&amp;删除收藏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -781,10 +788,10 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -794,10 +801,10 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -807,10 +814,10 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -820,23 +827,23 @@
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -846,10 +853,10 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -859,145 +866,135 @@
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="6">
-        <v>107</v>
-      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="10">
-        <v>4.4000000000000004</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F14" s="6">
+        <v>107</v>
+      </c>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G15" s="10">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="10">
-        <v>5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G17" s="10">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="10"/>
+      <c r="E18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="10">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="6">
-        <v>4723</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>48</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="6">
-        <v>4725</v>
+        <v>4723</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>45</v>
@@ -1005,22 +1002,22 @@
       <c r="F20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="10">
-        <v>4.4000000000000004</v>
+      <c r="G20" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="6">
-        <v>4723</v>
+        <v>4725</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>45</v>
@@ -1034,10 +1031,10 @@
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>57</v>
@@ -1046,12 +1043,35 @@
         <v>4723</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="6">
+        <v>4723</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Data/TeseCaseDescription.xlsx
+++ b/Data/TeseCaseDescription.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Web_AddressManage</t>
   </si>
@@ -260,6 +260,14 @@
   </si>
   <si>
     <t>未登录情况收藏商品&amp;删除收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web_CollectGoods_And_Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏商品&amp;商品详情页面取消收藏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -788,10 +796,10 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -801,10 +809,10 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -814,10 +822,10 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -827,10 +835,10 @@
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -840,23 +848,23 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -866,10 +874,10 @@
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -879,145 +887,135 @@
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="6">
-        <v>107</v>
-      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="10">
-        <v>4.4000000000000004</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F15" s="6">
+        <v>107</v>
+      </c>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G16" s="10">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="10">
-        <v>5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G18" s="10">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="10"/>
+      <c r="E19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="10">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="6">
-        <v>4723</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>48</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="6">
-        <v>4725</v>
+        <v>4723</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>45</v>
@@ -1025,22 +1023,22 @@
       <c r="F21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="10">
-        <v>4.4000000000000004</v>
+      <c r="G21" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="6">
-        <v>4723</v>
+        <v>4725</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>45</v>
@@ -1054,10 +1052,10 @@
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>57</v>
@@ -1066,12 +1064,35 @@
         <v>4723</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="6">
+        <v>4723</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>52</v>
       </c>
     </row>
